--- a/regionseng/9/business sector/by kind of activity_nace rev.2.xlsx
+++ b/regionseng/9/business sector/by kind of activity_nace rev.2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E0F02-CAFE-4365-B143-C6EA029F99E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14430" windowHeight="8010"/>
+    <workbookView xWindow="-15" yWindow="30" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -320,6 +321,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -355,6 +373,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,11 +565,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -618,6 +653,12 @@
       <c r="P5" s="6">
         <v>2020</v>
       </c>
+      <c r="Q5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -668,8 +709,12 @@
       <c r="P6" s="9">
         <v>2011.9</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="Q6" s="9">
+        <v>2224.3000000000002</v>
+      </c>
+      <c r="R6" s="9">
+        <v>2773</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
@@ -720,8 +765,12 @@
       <c r="P7" s="10">
         <v>112.1</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="Q7" s="10">
+        <v>152.19999999999999</v>
+      </c>
+      <c r="R7" s="10">
+        <v>197</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -772,8 +821,12 @@
       <c r="P8" s="10">
         <v>20.2</v>
       </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="Q8" s="10">
+        <v>38</v>
+      </c>
+      <c r="R8" s="10">
+        <v>55.4</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -824,8 +877,12 @@
       <c r="P9" s="10">
         <v>614.5</v>
       </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="Q9" s="10">
+        <v>705.2</v>
+      </c>
+      <c r="R9" s="10">
+        <v>864.7</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
@@ -876,8 +933,12 @@
       <c r="P10" s="10">
         <v>28.1</v>
       </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="Q10" s="10">
+        <v>48.7</v>
+      </c>
+      <c r="R10" s="10">
+        <v>37.799999999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -928,8 +989,12 @@
       <c r="P11" s="10">
         <v>2.4</v>
       </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="Q11" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="R11" s="10">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -980,8 +1045,12 @@
       <c r="P12" s="10">
         <v>97.5</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="R12" s="10">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -1032,8 +1101,12 @@
       <c r="P13" s="10">
         <v>1066.0999999999999</v>
       </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="Q13" s="10">
+        <v>1045.8</v>
+      </c>
+      <c r="R13" s="10">
+        <v>1091.4000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
@@ -1084,8 +1157,12 @@
       <c r="P14" s="10">
         <v>9</v>
       </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="Q14" s="10">
+        <v>14.2</v>
+      </c>
+      <c r="R14" s="10">
+        <v>41.1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
@@ -1136,8 +1213,12 @@
       <c r="P15" s="10">
         <v>32.9</v>
       </c>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="Q15" s="10">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="R15" s="10">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1188,8 +1269,12 @@
       <c r="P16" s="10">
         <v>1.5</v>
       </c>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="Q16" s="10">
+        <v>2</v>
+      </c>
+      <c r="R16" s="10">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
@@ -1240,8 +1325,12 @@
       <c r="P17" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="Q17" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="R17" s="10">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
@@ -1292,8 +1381,12 @@
       <c r="P18" s="10">
         <v>3.2</v>
       </c>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="Q18" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="R18" s="10">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
@@ -1344,8 +1437,12 @@
       <c r="P19" s="10">
         <v>3.2</v>
       </c>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="Q19" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="R19" s="10">
+        <v>9.3000000000000007</v>
+      </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1396,8 +1493,12 @@
       <c r="P20" s="10">
         <v>1.2</v>
       </c>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="Q20" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="R20" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -1448,8 +1549,12 @@
       <c r="P21" s="10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="Q21" s="10">
+        <v>10.6</v>
+      </c>
+      <c r="R21" s="10">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1500,8 +1605,12 @@
       <c r="P22" s="10">
         <v>0.7</v>
       </c>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="Q22" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="R22" s="10">
+        <v>156.6</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
@@ -1552,13 +1661,18 @@
       <c r="P23" s="10">
         <v>0.9</v>
       </c>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="Q23" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="R23" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
     </row>
     <row r="25" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -1571,11 +1685,13 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
@@ -1624,6 +1740,12 @@
       <c r="P27" s="6">
         <v>2020</v>
       </c>
+      <c r="Q27" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R27" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
@@ -1674,6 +1796,12 @@
       <c r="P28" s="9">
         <v>1206</v>
       </c>
+      <c r="Q28" s="9">
+        <v>1493.9</v>
+      </c>
+      <c r="R28" s="9">
+        <v>1729.4</v>
+      </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
@@ -1724,6 +1852,12 @@
       <c r="P29" s="10">
         <v>139.1</v>
       </c>
+      <c r="Q29" s="10">
+        <v>168</v>
+      </c>
+      <c r="R29" s="10">
+        <v>241.6</v>
+      </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
@@ -1774,6 +1908,12 @@
       <c r="P30" s="10">
         <v>27.8</v>
       </c>
+      <c r="Q30" s="10">
+        <v>38</v>
+      </c>
+      <c r="R30" s="10">
+        <v>55.5</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
@@ -1824,6 +1964,12 @@
       <c r="P31" s="10">
         <v>656.1</v>
       </c>
+      <c r="Q31" s="10">
+        <v>806.7</v>
+      </c>
+      <c r="R31" s="10">
+        <v>855.5</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
@@ -1874,6 +2020,12 @@
       <c r="P32" s="10">
         <v>27.9</v>
       </c>
+      <c r="Q32" s="10">
+        <v>41.2</v>
+      </c>
+      <c r="R32" s="10">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
@@ -1924,6 +2076,12 @@
       <c r="P33" s="10">
         <v>2.6</v>
       </c>
+      <c r="Q33" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="R33" s="10">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
@@ -1974,6 +2132,12 @@
       <c r="P34" s="10">
         <v>112.8</v>
       </c>
+      <c r="Q34" s="10">
+        <v>105.6</v>
+      </c>
+      <c r="R34" s="10">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
@@ -2024,6 +2188,12 @@
       <c r="P35" s="10">
         <v>160.1</v>
       </c>
+      <c r="Q35" s="10">
+        <v>162.1</v>
+      </c>
+      <c r="R35" s="10">
+        <v>165.5</v>
+      </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
@@ -2074,6 +2244,12 @@
       <c r="P36" s="10">
         <v>9.4</v>
       </c>
+      <c r="Q36" s="10">
+        <v>50</v>
+      </c>
+      <c r="R36" s="10">
+        <v>41.7</v>
+      </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
@@ -2124,6 +2300,12 @@
       <c r="P37" s="10">
         <v>34.200000000000003</v>
       </c>
+      <c r="Q37" s="10">
+        <v>76.8</v>
+      </c>
+      <c r="R37" s="10">
+        <v>95.7</v>
+      </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -2174,6 +2356,12 @@
       <c r="P38" s="10">
         <v>2</v>
       </c>
+      <c r="Q38" s="10">
+        <v>2</v>
+      </c>
+      <c r="R38" s="10">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
@@ -2224,6 +2412,12 @@
       <c r="P39" s="10">
         <v>8.6999999999999993</v>
       </c>
+      <c r="Q39" s="10">
+        <v>6.4</v>
+      </c>
+      <c r="R39" s="10">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
@@ -2274,6 +2468,12 @@
       <c r="P40" s="10">
         <v>3.2</v>
       </c>
+      <c r="Q40" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="R40" s="10">
+        <v>14.9</v>
+      </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
@@ -2324,6 +2524,12 @@
       <c r="P41" s="10">
         <v>2.8</v>
       </c>
+      <c r="Q41" s="10">
+        <v>3.6</v>
+      </c>
+      <c r="R41" s="10">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
@@ -2374,8 +2580,12 @@
       <c r="P42" s="10">
         <v>1.2</v>
       </c>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
+      <c r="Q42" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="R42" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
@@ -2426,8 +2636,12 @@
       <c r="P43" s="10">
         <v>14.6</v>
       </c>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
+      <c r="Q43" s="10">
+        <v>17.3</v>
+      </c>
+      <c r="R43" s="10">
+        <v>19.600000000000001</v>
+      </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
@@ -2478,8 +2692,12 @@
       <c r="P44" s="10">
         <v>2.7</v>
       </c>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
+      <c r="Q44" s="10">
+        <v>3.4</v>
+      </c>
+      <c r="R44" s="10">
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
@@ -2530,13 +2748,18 @@
       <c r="P45" s="10">
         <v>0.9</v>
       </c>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
+      <c r="Q45" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="R45" s="10">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
     </row>
     <row r="47" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -2549,11 +2772,13 @@
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
       <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
     </row>
     <row r="48" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
@@ -2602,6 +2827,12 @@
       <c r="P49" s="6">
         <v>2020</v>
       </c>
+      <c r="Q49" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R49" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -2652,6 +2883,12 @@
       <c r="P50" s="13">
         <v>20656.2</v>
       </c>
+      <c r="Q50" s="13">
+        <v>22067</v>
+      </c>
+      <c r="R50" s="13">
+        <v>22695</v>
+      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
@@ -2702,6 +2939,12 @@
       <c r="P51" s="14">
         <v>2017.2</v>
       </c>
+      <c r="Q51" s="14">
+        <v>2121</v>
+      </c>
+      <c r="R51" s="14">
+        <v>2240</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
@@ -2752,6 +2995,12 @@
       <c r="P52" s="14">
         <v>402.2</v>
       </c>
+      <c r="Q52" s="14">
+        <v>225</v>
+      </c>
+      <c r="R52" s="14">
+        <v>213</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
@@ -2802,6 +3051,12 @@
       <c r="P53" s="14">
         <v>5814.4</v>
       </c>
+      <c r="Q53" s="14">
+        <v>6110</v>
+      </c>
+      <c r="R53" s="14">
+        <v>6287</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
@@ -2852,6 +3107,12 @@
       <c r="P54" s="14">
         <v>147</v>
       </c>
+      <c r="Q54" s="14">
+        <v>215</v>
+      </c>
+      <c r="R54" s="14">
+        <v>188</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
@@ -2902,6 +3163,12 @@
       <c r="P55" s="14">
         <v>217</v>
       </c>
+      <c r="Q55" s="14">
+        <v>215</v>
+      </c>
+      <c r="R55" s="14">
+        <v>235</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -2952,6 +3219,12 @@
       <c r="P56" s="14">
         <v>1502.9</v>
       </c>
+      <c r="Q56" s="14">
+        <v>1506</v>
+      </c>
+      <c r="R56" s="14">
+        <v>1393</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
@@ -3002,6 +3275,12 @@
       <c r="P57" s="14">
         <v>6502.4</v>
       </c>
+      <c r="Q57" s="14">
+        <v>7086</v>
+      </c>
+      <c r="R57" s="14">
+        <v>7103</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
@@ -3052,6 +3331,12 @@
       <c r="P58" s="14">
         <v>434.7</v>
       </c>
+      <c r="Q58" s="14">
+        <v>604</v>
+      </c>
+      <c r="R58" s="14">
+        <v>707</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
@@ -3102,6 +3387,12 @@
       <c r="P59" s="14">
         <v>1024</v>
       </c>
+      <c r="Q59" s="14">
+        <v>1318</v>
+      </c>
+      <c r="R59" s="14">
+        <v>1512</v>
+      </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
@@ -3152,6 +3443,12 @@
       <c r="P60" s="14">
         <v>115</v>
       </c>
+      <c r="Q60" s="14">
+        <v>139</v>
+      </c>
+      <c r="R60" s="14">
+        <v>114</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
@@ -3202,6 +3499,12 @@
       <c r="P61" s="14">
         <v>335.5</v>
       </c>
+      <c r="Q61" s="14">
+        <v>211</v>
+      </c>
+      <c r="R61" s="14">
+        <v>355</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -3252,6 +3555,12 @@
       <c r="P62" s="14">
         <v>297</v>
       </c>
+      <c r="Q62" s="14">
+        <v>444</v>
+      </c>
+      <c r="R62" s="14">
+        <v>388</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -3302,6 +3611,12 @@
       <c r="P63" s="14">
         <v>101</v>
       </c>
+      <c r="Q63" s="14">
+        <v>103</v>
+      </c>
+      <c r="R63" s="14">
+        <v>157</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
@@ -3352,8 +3667,12 @@
       <c r="P64" s="14">
         <v>279</v>
       </c>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
+      <c r="Q64" s="14">
+        <v>281</v>
+      </c>
+      <c r="R64" s="14">
+        <v>259</v>
+      </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
@@ -3404,8 +3723,12 @@
       <c r="P65" s="14">
         <v>1137</v>
       </c>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
+      <c r="Q65" s="14">
+        <v>1139</v>
+      </c>
+      <c r="R65" s="14">
+        <v>1138</v>
+      </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
@@ -3456,8 +3779,12 @@
       <c r="P66" s="14">
         <v>181</v>
       </c>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
+      <c r="Q66" s="14">
+        <v>201</v>
+      </c>
+      <c r="R66" s="14">
+        <v>248</v>
+      </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
@@ -3508,13 +3835,18 @@
       <c r="P67" s="14">
         <v>149</v>
       </c>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
+      <c r="Q67" s="14">
+        <v>149</v>
+      </c>
+      <c r="R67" s="14">
+        <v>158</v>
+      </c>
     </row>
     <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N68" s="7"/>
       <c r="O68" s="7"/>
       <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
     </row>
     <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -3527,11 +3859,13 @@
       <c r="N69" s="7"/>
       <c r="O69" s="7"/>
       <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
     </row>
     <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="N70" s="7"/>
       <c r="O70" s="7"/>
       <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
@@ -3580,6 +3914,12 @@
       <c r="P71" s="6">
         <v>2020</v>
       </c>
+      <c r="Q71" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R71" s="6">
+        <v>2022</v>
+      </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
@@ -3630,6 +3970,12 @@
       <c r="P72" s="9">
         <v>832.7</v>
       </c>
+      <c r="Q72" s="9">
+        <v>901.1</v>
+      </c>
+      <c r="R72" s="9">
+        <v>1114.8</v>
+      </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
@@ -3680,6 +4026,12 @@
       <c r="P73" s="10">
         <v>789.1</v>
       </c>
+      <c r="Q73" s="10">
+        <v>920.6</v>
+      </c>
+      <c r="R73" s="10">
+        <v>1130.5</v>
+      </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
@@ -3730,6 +4082,12 @@
       <c r="P74" s="10">
         <v>1616.5</v>
       </c>
+      <c r="Q74" s="10">
+        <v>1297.9000000000001</v>
+      </c>
+      <c r="R74" s="10">
+        <v>1594.9</v>
+      </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
@@ -3780,6 +4138,12 @@
       <c r="P75" s="10">
         <v>982.8</v>
       </c>
+      <c r="Q75" s="10">
+        <v>1076.7</v>
+      </c>
+      <c r="R75" s="10">
+        <v>1268.8</v>
+      </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
@@ -3830,6 +4194,12 @@
       <c r="P76" s="10">
         <v>1922.4</v>
       </c>
+      <c r="Q76" s="10">
+        <v>2035.8</v>
+      </c>
+      <c r="R76" s="10">
+        <v>2164.8000000000002</v>
+      </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
@@ -3880,6 +4250,12 @@
       <c r="P77" s="10">
         <v>625.20000000000005</v>
       </c>
+      <c r="Q77" s="10">
+        <v>659.4</v>
+      </c>
+      <c r="R77" s="10">
+        <v>647.79999999999995</v>
+      </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
@@ -3930,6 +4306,12 @@
       <c r="P78" s="10">
         <v>1205.3</v>
       </c>
+      <c r="Q78" s="10">
+        <v>1023.7</v>
+      </c>
+      <c r="R78" s="10">
+        <v>1789.3</v>
+      </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
@@ -3980,6 +4362,12 @@
       <c r="P79" s="10">
         <v>585.79999999999995</v>
       </c>
+      <c r="Q79" s="10">
+        <v>591.70000000000005</v>
+      </c>
+      <c r="R79" s="10">
+        <v>670.6</v>
+      </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
@@ -4030,8 +4418,14 @@
       <c r="P80" s="10">
         <v>288.60000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="10">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="R80" s="10">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>13</v>
       </c>
@@ -4080,8 +4474,14 @@
       <c r="P81" s="10">
         <v>1016</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="10">
+        <v>1237.2</v>
+      </c>
+      <c r="R81" s="10">
+        <v>1495.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>14</v>
       </c>
@@ -4130,8 +4530,14 @@
       <c r="P82" s="10">
         <v>1208</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="10">
+        <v>1601.3</v>
+      </c>
+      <c r="R82" s="10">
+        <v>1995.6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>15</v>
       </c>
@@ -4180,8 +4586,14 @@
       <c r="P83" s="10">
         <v>316.3</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="10">
+        <v>517.6</v>
+      </c>
+      <c r="R83" s="10">
+        <v>957.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
@@ -4230,8 +4642,14 @@
       <c r="P84" s="10">
         <v>464.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="10">
+        <v>575.6</v>
+      </c>
+      <c r="R84" s="10">
+        <v>1565.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>17</v>
       </c>
@@ -4280,8 +4698,14 @@
       <c r="P85" s="10">
         <v>563.70000000000005</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="10">
+        <v>704.3</v>
+      </c>
+      <c r="R85" s="10">
+        <v>771.9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>18</v>
       </c>
@@ -4330,8 +4754,14 @@
       <c r="P86" s="10">
         <v>253.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="10">
+        <v>262.2</v>
+      </c>
+      <c r="R86" s="10">
+        <v>353.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>19</v>
       </c>
@@ -4380,8 +4810,14 @@
       <c r="P87" s="10">
         <v>630.29999999999995</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="10">
+        <v>708.5</v>
+      </c>
+      <c r="R87" s="10">
+        <v>800.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>20</v>
       </c>
@@ -4430,8 +4866,14 @@
       <c r="P88" s="10">
         <v>713.8</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="10">
+        <v>824.1</v>
+      </c>
+      <c r="R88" s="10">
+        <v>1606.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>21</v>
       </c>
@@ -4479,6 +4921,12 @@
       </c>
       <c r="P89" s="10">
         <v>100</v>
+      </c>
+      <c r="Q89" s="10">
+        <v>0</v>
+      </c>
+      <c r="R89" s="10">
+        <v>127.5</v>
       </c>
     </row>
   </sheetData>
